--- a/备忘/工资.xlsx
+++ b/备忘/工资.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zhbli\notes\备忘\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F553878F-AED1-4877-A01A-8C916D478FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A05A5AF-79A6-4E98-92D3-35397CB002ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="工资" sheetId="1" r:id="rId1"/>
+    <sheet name="账单" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">账单!$E$1:$E$19</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>岗位工资</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,6 +105,96 @@
   </si>
   <si>
     <t>实发金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对齐</t>
+  </si>
+  <si>
+    <t>qq音乐会员</t>
+  </si>
+  <si>
+    <t>钢笔</t>
+  </si>
+  <si>
+    <t>买桑葚</t>
+  </si>
+  <si>
+    <t>提现手续费</t>
+  </si>
+  <si>
+    <t>NFC读写器</t>
+  </si>
+  <si>
+    <t>手机壳</t>
+  </si>
+  <si>
+    <t>裤子</t>
+  </si>
+  <si>
+    <t>和王作广吃刀削面</t>
+  </si>
+  <si>
+    <t>王作广AA</t>
+  </si>
+  <si>
+    <t>洗衣液</t>
+  </si>
+  <si>
+    <t>买电子书</t>
+  </si>
+  <si>
+    <t>百度网盘会员</t>
+  </si>
+  <si>
+    <t>酒</t>
+  </si>
+  <si>
+    <t>总资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工行变动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信变动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信提现17525.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工行余额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信余额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剪子胶带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零食薯片鸭舌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉野家晚饭咖喱鸡盖饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总变动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -108,8 +202,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="178" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -172,21 +268,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -202,6 +311,851 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>账单!$I$2:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>53764.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53584.51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53572.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53554.479999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53472.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53437.599999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53181.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53117.04</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>53114.04</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53089.04</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>52998.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-15BF-4D7D-902C-155D181C30D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="365950240"/>
+        <c:axId val="365959360"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="365950240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="365959360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="365959360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="365950240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>658586</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>59871</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9D0045F-E593-6B79-AAF0-A3D9264A962F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -469,8 +1423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -490,7 +1444,7 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
@@ -520,7 +1474,7 @@
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
+      <c r="A3" s="10"/>
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -548,7 +1502,7 @@
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
+      <c r="A4" s="10"/>
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -576,7 +1530,7 @@
       <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
+      <c r="A5" s="10"/>
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -604,7 +1558,7 @@
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
+      <c r="A6" s="10"/>
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -632,7 +1586,7 @@
       <c r="T6" s="1"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
+      <c r="A7" s="10"/>
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -660,15 +1614,15 @@
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <f>SUM(C2:C7)</f>
         <v>11925</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <f>SUM(D2:D7)</f>
         <v>11925</v>
       </c>
@@ -690,7 +1644,7 @@
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
@@ -720,7 +1674,7 @@
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
+      <c r="A10" s="10"/>
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -748,7 +1702,7 @@
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
+      <c r="A11" s="10"/>
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -776,7 +1730,7 @@
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
+      <c r="A12" s="10"/>
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -804,7 +1758,7 @@
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
+      <c r="A13" s="10"/>
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -832,7 +1786,7 @@
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
+      <c r="A14" s="10"/>
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -860,15 +1814,15 @@
       <c r="T14" s="1"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4" t="s">
+      <c r="A15" s="10"/>
+      <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <f>SUM(C9:C14)</f>
         <v>3371.61</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <f>SUM(D9:D14)</f>
         <v>3170.92</v>
       </c>
@@ -890,15 +1844,15 @@
       <c r="T15" s="1"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7">
+      <c r="B16" s="11"/>
+      <c r="C16" s="5">
         <f>C8-C15</f>
         <v>8553.39</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="5">
         <f>D8-D15</f>
         <v>8754.08</v>
       </c>
@@ -1270,4 +2224,607 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA50A3A-2BD8-4DBF-BBA0-E28F3EA6D187}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14" style="7" customWidth="1"/>
+    <col min="3" max="5" width="14.0703125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6">
+        <v>45393</v>
+      </c>
+      <c r="B2" s="7">
+        <v>36221.35</v>
+      </c>
+      <c r="C2" s="8">
+        <v>17558.72</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="8">
+        <v>36221.35</v>
+      </c>
+      <c r="H2" s="9">
+        <v>17558.72</v>
+      </c>
+      <c r="I2" s="1">
+        <f>G2+H2</f>
+        <v>53780.07</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="13">
+        <v>45393</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8">
+        <v>-16</v>
+      </c>
+      <c r="D3" s="8">
+        <f>B3+C3</f>
+        <v>-16</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="8">
+        <f>B2+B3</f>
+        <v>36221.35</v>
+      </c>
+      <c r="H3" s="9">
+        <f>H2+C3</f>
+        <v>17542.72</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:I17" si="0">G3+H3</f>
+        <v>53764.07</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="14">
+        <v>45394</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-179.56</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
+        <f t="shared" ref="D4:D5" si="1">B4+C4</f>
+        <v>-179.56</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="8">
+        <f t="shared" ref="G4:G19" si="2">G3+B4</f>
+        <v>36041.79</v>
+      </c>
+      <c r="H4" s="9">
+        <f t="shared" ref="H4:H17" si="3">H3+C4</f>
+        <v>17542.72</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="0"/>
+        <v>53584.51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="14"/>
+      <c r="B5" s="1">
+        <v>-12.5</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
+        <f t="shared" si="1"/>
+        <v>-12.5</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="8">
+        <f t="shared" si="2"/>
+        <v>36029.29</v>
+      </c>
+      <c r="H5" s="9">
+        <f t="shared" si="3"/>
+        <v>17542.72</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="0"/>
+        <v>53572.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>45395</v>
+      </c>
+      <c r="B6" s="7">
+        <v>17525.189999999999</v>
+      </c>
+      <c r="C6" s="8">
+        <v>-17525.189999999999</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="8">
+        <f t="shared" si="2"/>
+        <v>53554.479999999996</v>
+      </c>
+      <c r="H6" s="9">
+        <f t="shared" si="3"/>
+        <v>17.530000000002474</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="0"/>
+        <v>53572.009999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="14">
+        <v>45395</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8">
+        <v>-17.53</v>
+      </c>
+      <c r="D7" s="8">
+        <f t="shared" ref="D7:D10" si="4">B7+C7</f>
+        <v>-17.53</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="8">
+        <f t="shared" si="2"/>
+        <v>53554.479999999996</v>
+      </c>
+      <c r="H7" s="9">
+        <f t="shared" si="3"/>
+        <v>2.4726887204451486E-12</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="0"/>
+        <v>53554.479999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="14"/>
+      <c r="B8" s="1">
+        <v>-81.88</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="8">
+        <f t="shared" si="4"/>
+        <v>-81.88</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="8">
+        <f t="shared" si="2"/>
+        <v>53472.6</v>
+      </c>
+      <c r="H8" s="9">
+        <f t="shared" si="3"/>
+        <v>2.4726887204451486E-12</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="0"/>
+        <v>53472.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="14"/>
+      <c r="B9" s="1">
+        <v>-35</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0</v>
+      </c>
+      <c r="D9" s="8">
+        <f t="shared" si="4"/>
+        <v>-35</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="2"/>
+        <v>53437.599999999999</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="3"/>
+        <v>2.4726887204451486E-12</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="0"/>
+        <v>53437.599999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="14"/>
+      <c r="B10" s="1">
+        <v>-256.10000000000002</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0</v>
+      </c>
+      <c r="D10" s="8">
+        <f t="shared" si="4"/>
+        <v>-256.10000000000002</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="2"/>
+        <v>53181.5</v>
+      </c>
+      <c r="H10" s="9">
+        <f t="shared" si="3"/>
+        <v>2.4726887204451486E-12</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="0"/>
+        <v>53181.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="12"/>
+      <c r="B11" s="1">
+        <v>-77</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" si="2"/>
+        <v>53104.5</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" si="3"/>
+        <v>2.4726887204451486E-12</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="0"/>
+        <v>53104.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="12"/>
+      <c r="B12" s="7">
+        <v>0</v>
+      </c>
+      <c r="C12" s="8">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="8">
+        <f t="shared" si="2"/>
+        <v>53104.5</v>
+      </c>
+      <c r="H12" s="9">
+        <f t="shared" si="3"/>
+        <v>40.000000000002473</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="0"/>
+        <v>53144.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="14"/>
+      <c r="B13" s="7">
+        <v>0</v>
+      </c>
+      <c r="C13" s="8">
+        <v>-27.46</v>
+      </c>
+      <c r="D13" s="8">
+        <f t="shared" ref="D13:D19" si="5">B13+C13</f>
+        <v>-27.46</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="8">
+        <f t="shared" si="2"/>
+        <v>53104.5</v>
+      </c>
+      <c r="H13" s="9">
+        <f>H12+C13</f>
+        <v>12.540000000002472</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="0"/>
+        <v>53117.04</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="14">
+        <v>45396</v>
+      </c>
+      <c r="B14" s="1">
+        <v>-3</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0</v>
+      </c>
+      <c r="D14" s="8">
+        <f t="shared" si="5"/>
+        <v>-3</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="8">
+        <f t="shared" si="2"/>
+        <v>53101.5</v>
+      </c>
+      <c r="H14" s="9">
+        <f t="shared" si="3"/>
+        <v>12.540000000002472</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="0"/>
+        <v>53114.04</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="14"/>
+      <c r="B15" s="1">
+        <v>-25</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0</v>
+      </c>
+      <c r="D15" s="8">
+        <f t="shared" si="5"/>
+        <v>-25</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="8">
+        <f t="shared" si="2"/>
+        <v>53076.5</v>
+      </c>
+      <c r="H15" s="9">
+        <f t="shared" si="3"/>
+        <v>12.540000000002472</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="0"/>
+        <v>53089.04</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="14"/>
+      <c r="B16" s="1">
+        <v>-90.29</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0</v>
+      </c>
+      <c r="D16" s="8">
+        <f t="shared" si="5"/>
+        <v>-90.29</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="8">
+        <f t="shared" si="2"/>
+        <v>52986.21</v>
+      </c>
+      <c r="H16" s="9">
+        <f t="shared" si="3"/>
+        <v>12.540000000002472</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="0"/>
+        <v>52998.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="14"/>
+      <c r="B17" s="7">
+        <v>-107.1</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0</v>
+      </c>
+      <c r="D17" s="8">
+        <f t="shared" si="5"/>
+        <v>-107.1</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="8">
+        <f t="shared" si="2"/>
+        <v>52879.11</v>
+      </c>
+      <c r="H17" s="9">
+        <f t="shared" si="3"/>
+        <v>12.540000000002472</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="0"/>
+        <v>52891.65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="14"/>
+      <c r="B18" s="7">
+        <v>-51.2</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0</v>
+      </c>
+      <c r="D18" s="8">
+        <f t="shared" si="5"/>
+        <v>-51.2</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="8">
+        <f t="shared" si="2"/>
+        <v>52827.91</v>
+      </c>
+      <c r="H18" s="9">
+        <f t="shared" ref="H18" si="6">H17+C18</f>
+        <v>12.540000000002472</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" ref="I18" si="7">G18+H18</f>
+        <v>52840.450000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="14"/>
+      <c r="B19" s="7">
+        <v>-19.5</v>
+      </c>
+      <c r="C19" s="8">
+        <v>0</v>
+      </c>
+      <c r="D19" s="8">
+        <f t="shared" si="5"/>
+        <v>-19.5</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="8">
+        <f t="shared" si="2"/>
+        <v>52808.41</v>
+      </c>
+      <c r="H19" s="9">
+        <f t="shared" ref="H19" si="8">H18+C19</f>
+        <v>12.540000000002472</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" ref="I19" si="9">G19+H19</f>
+        <v>52820.950000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="E1:E19" xr:uid="{8CA50A3A-2BD8-4DBF-BBA0-E28F3EA6D187}">
+    <filterColumn colId="0">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <mergeCells count="3">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="A14:A19"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/备忘/工资.xlsx
+++ b/备忘/工资.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zhbli\notes\备忘\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A05A5AF-79A6-4E98-92D3-35397CB002ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D23443C-C1BE-4CD8-A317-520897746DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4545" yWindow="-16320" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工资" sheetId="1" r:id="rId1"/>
     <sheet name="账单" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">账单!$E$1:$E$19</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
   <si>
     <t>岗位工资</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -195,6 +196,30 @@
   </si>
   <si>
     <t>总变动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信使费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -256,7 +281,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -264,11 +289,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -281,6 +315,10 @@
     <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -288,14 +326,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1444,7 +1481,7 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
@@ -1474,7 +1511,7 @@
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A3" s="10"/>
+      <c r="A3" s="12"/>
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -1502,7 +1539,7 @@
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A4" s="10"/>
+      <c r="A4" s="12"/>
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -1530,7 +1567,7 @@
       <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A5" s="10"/>
+      <c r="A5" s="12"/>
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -1558,7 +1595,7 @@
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A6" s="10"/>
+      <c r="A6" s="12"/>
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -1586,7 +1623,7 @@
       <c r="T6" s="1"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A7" s="10"/>
+      <c r="A7" s="12"/>
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -1614,7 +1651,7 @@
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A8" s="10"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
@@ -1644,7 +1681,7 @@
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
@@ -1674,7 +1711,7 @@
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A10" s="10"/>
+      <c r="A10" s="12"/>
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -1702,7 +1739,7 @@
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A11" s="10"/>
+      <c r="A11" s="12"/>
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -1730,7 +1767,7 @@
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A12" s="10"/>
+      <c r="A12" s="12"/>
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -1758,7 +1795,7 @@
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A13" s="10"/>
+      <c r="A13" s="12"/>
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -1786,7 +1823,7 @@
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A14" s="10"/>
+      <c r="A14" s="12"/>
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -1814,7 +1851,7 @@
       <c r="T14" s="1"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A15" s="10"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
@@ -1844,10 +1881,10 @@
       <c r="T15" s="1"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="11"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="5">
         <f>C8-C15</f>
         <v>8553.39</v>
@@ -2231,8 +2268,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -2294,7 +2331,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="13">
+      <c r="A3" s="10">
         <v>45393</v>
       </c>
       <c r="B3" s="7">
@@ -2543,7 +2580,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="12"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="1">
         <v>-77</v>
       </c>
@@ -2567,7 +2604,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="12"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="7">
         <v>0</v>
       </c>
@@ -2827,4 +2864,339 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43953C4D-1F48-4843-8962-C54FCC4C45D5}">
+  <dimension ref="A1:C50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="11">
+        <v>44997</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="11">
+        <v>44997</v>
+      </c>
+      <c r="B3">
+        <v>-20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="11">
+        <v>45014</v>
+      </c>
+      <c r="B4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="11">
+        <v>45019</v>
+      </c>
+      <c r="B5">
+        <v>11934.95</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="11">
+        <v>45043</v>
+      </c>
+      <c r="B6">
+        <v>14764.77</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="11">
+        <v>45073</v>
+      </c>
+      <c r="B7">
+        <v>3201.48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="11">
+        <v>45074</v>
+      </c>
+      <c r="B8">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="11">
+        <v>45074</v>
+      </c>
+      <c r="B9">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="11">
+        <v>45075</v>
+      </c>
+      <c r="B10">
+        <v>-64.900000000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="11">
+        <v>45076</v>
+      </c>
+      <c r="B11">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="11">
+        <v>45080</v>
+      </c>
+      <c r="B12">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="11">
+        <v>45080</v>
+      </c>
+      <c r="B13">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="11">
+        <v>45080</v>
+      </c>
+      <c r="B14">
+        <v>-37.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>6954.04</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>-2002</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>-260</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <v>-56.5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <v>-303</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="16">
+        <v>-269.8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B26" s="17">
+        <v>-59.34</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B27" s="17">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B28" s="17">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B29" s="17">
+        <v>-198</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B30" s="17">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B31" s="17">
+        <v>-238</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B32" s="17">
+        <v>-44.82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B33" s="17">
+        <v>-43.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B34" s="17">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B35" s="17">
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B36" s="17">
+        <v>-256</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B37" s="17">
+        <v>-242</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B38" s="17">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B39" s="17">
+        <v>-112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B40" s="17">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B41" s="17">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B42" s="17">
+        <v>-39.200000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B43" s="17">
+        <v>-69.900000000000006</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B44" s="17">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B45" s="17">
+        <v>-374.91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B46" s="17">
+        <v>-449</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="11">
+        <v>45098</v>
+      </c>
+      <c r="B47" s="17">
+        <v>10.9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B48" s="17">
+        <v>-479</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B49" s="17">
+        <v>242</v>
+      </c>
+      <c r="C49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B50" s="17">
+        <v>256</v>
+      </c>
+      <c r="C50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>